--- a/src/logboek.xlsx
+++ b/src/logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikstokmans/OvergangsVergaderingHelper/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA9F73A-95B6-BD41-A3D5-13FDCA3A8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B1A57-1E33-264F-AB21-C8EAD70F78EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Table 1</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">layout voor het tijd management systeem vernieuwd met een grid systeem </t>
+  </si>
+  <si>
+    <t>verder gegaan met de layout - versimpelt van code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2022 - 23/11/22   </t>
+  </si>
+  <si>
+    <t>in de lessen gewerkt aan de layout, zelf een verbeterde table gemaakt. Hud-menu word deels geupdate, uitgezocht hoe het project uiteindelijk gepublicieerd kan worden</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,6 +208,15 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -241,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,13 +1419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1529,169 +1547,37 @@
       <c r="A14" s="6">
         <v>44867</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>44868</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
-        <v>44869</v>
+        <v>44889</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
-        <v>44870</v>
+        <v>44890</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>44871</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>44872</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>44873</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>44874</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>44875</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>44876</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>44877</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>44878</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>44879</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>44880</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>44881</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>44882</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>44883</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
-        <v>44884</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
-        <v>44885</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
-        <v>44886</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
-        <v>44887</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
-        <v>44888</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
-        <v>44889</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
-        <v>44890</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
